--- a/biology/Médecine/Prix_Cloëtta/Prix_Cloëtta.xlsx
+++ b/biology/Médecine/Prix_Cloëtta/Prix_Cloëtta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Clo%C3%ABtta</t>
+          <t>Prix_Cloëtta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Prix Cloëtta (en allemand : Cloëtta-Preis) est une distinction suisse destinée à honorer des personnalités qui se sont illustrées dans le domaine de la recherche biomédicale[1]. 
+Le Prix Cloëtta (en allemand : Cloëtta-Preis) est une distinction suisse destinée à honorer des personnalités qui se sont illustrées dans le domaine de la recherche biomédicale. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Clo%C3%ABtta</t>
+          <t>Prix_Cloëtta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une valeur de 50 000 francs suisses, cette distinction est décernée chaque année depuis 1974 par la Fondation Max Cloëtta (basée à Zurich ) [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une valeur de 50 000 francs suisses, cette distinction est décernée chaque année depuis 1974 par la Fondation Max Cloëtta (basée à Zurich ) .
 Le prix est décerné pour la médecine et ses sciences auxiliaires et peut également être attribué à des étrangers.
 Il porte le nom de Max Cloëtta (de) (1868-1940), qui fut professeur ordinaire de pharmacologie à l'Université de Zurich et un temps son recteur.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_Clo%C3%ABtta</t>
+          <t>Prix_Cloëtta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-2023: Sebastian Jessberger, Christoph Hess[2]
-2022: Annette Oxenius[3], Doron Merkler
+2023: Sebastian Jessberger, Christoph Hess
+2022: Annette Oxenius, Doron Merkler
 2021: Anne Müller, Bart Deplancke
 2020: Mohamed Bentires-Alj et Nadia Mercader Huber
 2019: Botond Roska (de) et Oliver Distler
